--- a/python-in-excel-matplotlib-demo.xlsx
+++ b/python-in-excel-matplotlib-demo.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28407"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F217D5A-33B6-4FBF-BEFD-135ED7EB6542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320BB537-4612-4BC5-8FDB-421A665A0FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{323E893A-46DE-4AAE-89CC-8ABFEF8F2E46}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="matplotlib_basics" sheetId="1" r:id="rId1"/>
+    <sheet name="sales_df" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
+  <futureMetadata name="XLRICHVALUE" count="5">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -58,15 +59,55 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
+  <valueMetadata count="5">
     <bk>
       <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -75,7 +116,7 @@
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -93,8 +134,87 @@
     <pythonScript>
       <code>fig, ax = plt.subplots()</code>
     </pythonScript>
+    <pythonScript>
+      <code># Step 1: Create a Canvas
+fig, ax = plt.subplots()  # Create a figure and a single axes
+# Step 2: Plot the Data
+x = [1, 2, 3, 4, 5]  # Example data for the x-axis
+y = [10, 20, 30, 40, 50]  # Example data for the y-axis
+ax.plot(x, y, label="Sales Trend")  # Create a line plot
+# Step 3: Customize the Chart
+ax.set_title("Monthly Sales")  # Add a title
+ax.set_xlabel("Month")         # Label for the x-axis
+ax.set_ylabel("Sales ($)")     # Label for the y-axis
+ax.legend()                    # Add a legend</code>
+    </pythonScript>
+    <pythonScript>
+      <code># Step 1: Plot the Data
+x = [1, 2, 3, 4, 5]  # Example data for the x-axis
+y = [10, 20, 30, 40, 50]  # Example data for the y-axis
+plt.plot(x, y, label="Sales Trend")  # Create a line plot
+# Step 2: Customize the Chart
+plt.title("Monthly Sales")  # Add a title
+plt.xlabel("Month")         # Label for the x-axis
+plt.ylabel("Sales ($)")     # Label for the y-axis
+plt.legend()                # Add a legend</code>
+    </pythonScript>
+    <pythonScript>
+      <code>import matplotlib.pyplot as plt
+# Sample data
+x = ['A', 'B', 'C', 'D']
+y = [10, 20, 15, 25]
+# Create a 2x2 subplot grid
+fig, ax = plt.subplots(2, 2, figsize=(10, 8))
+# Bar chart
+ax[0, 0].bar(x, y)
+ax[0, 0].set_title('Bar Chart')
+# Line chart
+ax[0, 1].plot(x, y, marker='o')
+ax[0, 1].set_title('Line Chart')
+# Scatter plot
+ax[1, 0].scatter(x, y)
+ax[1, 0].set_title('Scatter Plot')
+# Pie chart
+ax[1, 1].pie(y, labels=x, autopct='%%1.1f%%%%')  
+ax[1, 1].set_title('Pie Chart')
+plt.tight_layout()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sales_df = xl(%P2%, headers=True)
+sales_df.plot(x='month', y='sales', title='Monthly Sales')</code>
+    </pythonScript>
+    <pythonScript>
+      <code xml:space="preserve">fig, ax = plt.subplots()
+sales_df.plot(x='month', y='sales', ax=ax, title='Monthly Sales')  # Integrates DataFrame with Matplotlibb
+ax.set_ylabel('Sales ($)')
+ax.set_facecolor('lightgray')
+</code>
+    </pythonScript>
   </pythonScripts>
 </python>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -175,7 +295,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Sheet1!A1"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="matplotlib_basics!A1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -190,6 +310,256 @@
         <a:xfrm>
           <a:off x="895349" y="0"/>
           <a:ext cx="5102362" cy="3822200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>776287</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>195263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323669</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>222703</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4964FA7A-8684-83D8-A5B3-03E7F4901D60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="matplotlib_basics!A20"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="776287" y="4310063"/>
+          <a:ext cx="5148082" cy="4142240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>728482</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>217940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD045589-71E8-EB11-E935-2A255AE47A93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="matplotlib_basics!A40"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="8877300"/>
+          <a:ext cx="5148082" cy="4142240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>275672</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>208611</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE2D8EE-0F80-EB81-B470-4F853C054617}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="matplotlib_basics!A60"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="833438" y="13558837"/>
+          <a:ext cx="9043434" cy="7223774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89735</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>27440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B34D65-D767-3E81-73E8-A7EB67646B09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="sales_df!D1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3043237" y="0"/>
+          <a:ext cx="5047498" cy="4142240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>719138</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>339672</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>106879</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{602A9B47-FF6C-AA00-A9CB-7F21FF2CC616}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="sales_df!D25"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3119438" y="5986463"/>
+          <a:ext cx="5221234" cy="3950216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -242,9 +612,29 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
   <rv s="0">
     <v>0</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
     <v>9</v>
     <v>Image generated by Python</v>
   </rv>
@@ -264,7 +654,22 @@
 <file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
 </richValueRels>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BEB5BE80-FDA1-4518-98C7-49B237B870A4}" name="sales" displayName="sales" ref="A1:B5" totalsRowShown="0">
+  <autoFilter ref="A1:B5" xr:uid="{BEB5BE80-FDA1-4518-98C7-49B237B870A4}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{EABD3E89-105C-4333-8682-6224D21E5BC1}" name="month"/>
+    <tableColumn id="2" xr3:uid="{769916A4-7CA9-419D-BB97-7B24F1AA6C87}" name="sales"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -584,7 +989,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5691289-B530-46BB-9BD8-F33FF153BC5C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -596,8 +1001,95 @@
         <v>#VALUE!</v>
       </c>
     </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="e" cm="1" vm="2">
+        <f t="array" ref="A20">_xlfn._xlws.PY(1,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="e" cm="1" vm="2">
+        <f t="array" ref="A40">_xlfn._xlws.PY(2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="e" cm="1" vm="3">
+        <f t="array" ref="A60">_xlfn._xlws.PY(3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAF0601-AD3C-4E60-9DAF-BA97B72E44FB}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="e" cm="1" vm="4">
+        <f t="array" ref="D1">_xlfn._xlws.PY(4,0,sales[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25" t="e" cm="1" vm="5">
+        <f t="array" ref="D25">_xlfn._xlws.PY(5,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>